--- a/assets/phyto-import-exemple.xlsx
+++ b/assets/phyto-import-exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ccbw\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA300B7-7CF5-4DD7-A323-0F7A25CD46E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3B807-4E82-4B5D-A68D-3A58FBDEAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -44,74 +44,68 @@
     <t>codeproducteur</t>
   </si>
   <si>
-    <t>typedeclaration</t>
-  </si>
-  <si>
-    <t>cultureparcelle</t>
-  </si>
-  <si>
-    <t>superficie</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>codeparcelle</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>CACAO</t>
-  </si>
-  <si>
     <t>2.17</t>
   </si>
   <si>
-    <t>6.1005</t>
-  </si>
-  <si>
-    <t>-5.3553</t>
-  </si>
-  <si>
     <t>RA-DI-001-P1</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>5.8073</t>
-  </si>
-  <si>
-    <t>-5.1787</t>
-  </si>
-  <si>
     <t>RA-DI-003-P1</t>
   </si>
   <si>
-    <t>Verbale</t>
-  </si>
-  <si>
-    <t>codeparcelle2</t>
-  </si>
-  <si>
-    <t>RA-DI-003</t>
-  </si>
-  <si>
-    <t>RA-DI-001</t>
-  </si>
-  <si>
-    <t>RA-DI-001-P3</t>
+    <t>Producteur</t>
+  </si>
+  <si>
+    <t>Applicateur</t>
+  </si>
+  <si>
+    <t>Independant</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>02/02/2024</t>
+  </si>
+  <si>
+    <t>04/02/2024</t>
+  </si>
+  <si>
+    <t>07/02/2024</t>
+  </si>
+  <si>
+    <t>RA-DI-001-S1</t>
+  </si>
+  <si>
+    <t>RA-DI-004-S1</t>
+  </si>
+  <si>
+    <t>RA-DI-004-P1</t>
+  </si>
+  <si>
+    <t>personne_application</t>
+  </si>
+  <si>
+    <t>superficie_pulverisee</t>
+  </si>
+  <si>
+    <t>delais_reentree_produit</t>
+  </si>
+  <si>
+    <t>date_application</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,11 +247,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -601,10 +601,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -655,6 +656,7 @@
       <font>
         <color rgb="FF000000"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -675,18 +677,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="codeparcelle"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="typedeclaration"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="cultureparcelle"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="superficie" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="latitude" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="longitude"/>
-    <tableColumn id="2" xr3:uid="{0979A0A8-DA2C-4E2B-AA09-4067F1A1A7F2}" name="codeparcelle2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="personne_application"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="superficie_pulverisee"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="delais_reentree_produit" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="date_application" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -989,26 +989,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,80 +1010,83 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/assets/phyto-import-exemple.xlsx
+++ b/assets/phyto-import-exemple.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ccbw\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3B807-4E82-4B5D-A68D-3A58FBDEAB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE5559-CCB7-4719-BE38-B5D7CE6B5E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import-liste-exemple" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -47,15 +48,9 @@
     <t>codeparcelle</t>
   </si>
   <si>
-    <t>2.17</t>
-  </si>
-  <si>
     <t>RA-DI-001-P1</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
     <t>RA-DI-003-P1</t>
   </si>
   <si>
@@ -68,18 +63,6 @@
     <t>Independant</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>02/02/2024</t>
-  </si>
-  <si>
-    <t>04/02/2024</t>
-  </si>
-  <si>
-    <t>07/02/2024</t>
-  </si>
-  <si>
     <t>RA-DI-001-S1</t>
   </si>
   <si>
@@ -89,16 +72,157 @@
     <t>RA-DI-004-P1</t>
   </si>
   <si>
-    <t>personne_application</t>
-  </si>
-  <si>
-    <t>superficie_pulverisee</t>
-  </si>
-  <si>
-    <t>delais_reentree_produit</t>
-  </si>
-  <si>
-    <t>date_application</t>
+    <t>Qui A Réalisé L'application ?</t>
+  </si>
+  <si>
+    <t>A-t-il Suivi Une Formation ?</t>
+  </si>
+  <si>
+    <t>A-t-il Une Attestation ?</t>
+  </si>
+  <si>
+    <t>A-t-il Fait Un Bilan De Santé ?</t>
+  </si>
+  <si>
+    <t>Possede T-il Un EPI ?</t>
+  </si>
+  <si>
+    <t>Applicateur coop</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>KIMA ISSOUF</t>
+  </si>
+  <si>
+    <t>KONAN DIDIER</t>
+  </si>
+  <si>
+    <t>oui</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>Pesticides</t>
+  </si>
+  <si>
+    <t>Nom Commercial</t>
+  </si>
+  <si>
+    <t>Matières actives</t>
+  </si>
+  <si>
+    <t>Toxicicologie</t>
+  </si>
+  <si>
+    <t>Unite Dose</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Unite Quantite</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>Maladies observées dans la parcelle</t>
+  </si>
+  <si>
+    <t>Superficie Pulvérisée</t>
+  </si>
+  <si>
+    <t>Délais De Réentrée Du Produit En Jours</t>
+  </si>
+  <si>
+    <t>Durée D'application</t>
+  </si>
+  <si>
+    <t>Date D'application</t>
+  </si>
+  <si>
+    <t>Herbicides</t>
+  </si>
+  <si>
+    <t>Fongicides</t>
+  </si>
+  <si>
+    <t>Nematicide</t>
+  </si>
+  <si>
+    <t>Insecticides</t>
+  </si>
+  <si>
+    <t>Acaricides</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>L/HA</t>
+  </si>
+  <si>
+    <t>mL/HA</t>
+  </si>
+  <si>
+    <t>Kg/HA</t>
+  </si>
+  <si>
+    <t>g/HA</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>mL</t>
+  </si>
+  <si>
+    <t>Mirides</t>
+  </si>
+  <si>
+    <t>Punaises</t>
+  </si>
+  <si>
+    <t>Foreurs</t>
+  </si>
+  <si>
+    <t>Chenilles</t>
+  </si>
+  <si>
+    <t>matiere 1, matiere 2,matiere 3</t>
+  </si>
+  <si>
+    <t>matiere 1, matiere 2,matiere 4</t>
+  </si>
+  <si>
+    <t>matiere 1, matiere 2,matiere 5</t>
   </si>
 </sst>
 </file>
@@ -601,11 +725,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -651,17 +788,85 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,16 +882,102 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="codeparcelle"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="personne_application"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="superficie_pulverisee"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="delais_reentree_produit" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="date_application" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W4" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:W4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="codeparcelle" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Qui A Réalisé L'application ?" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Applicateur" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="A-t-il Suivi Une Formation ?" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A-t-il Une Attestation ?" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BCCE30B8-A8E1-4B8B-AF8F-B1A479CD0FA6}" name="A-t-il Fait Un Bilan De Santé ?" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{F0E31054-6081-428F-A229-AE0D706DDC2B}" name="Possede T-il Un EPI ?" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{F6B42A40-D6BE-4358-ACCB-9B9D87979082}" name="Pesticides" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{4BB61336-AEDC-460F-9239-7BDDAC997AA1}" name="Nom Commercial" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{14D3D85C-A90D-47F2-9162-437189C7032A}" name="Matières actives" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{7ECD3FB2-C95D-4108-AE0A-6B4CEDC2B1E4}" name="Toxicicologie" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{553B064E-AAA8-485D-85D5-23A2AB002D5C}" name="Dose" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{FE44B55E-8360-4DF6-BD52-3FCA2A68EE30}" name="Unite Dose" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{EC96B864-BC3C-4402-9C3E-B934370C3637}" name="Quantité" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{F341C678-A800-4178-B1C5-155805A3C4DE}" name="Unite Quantite" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{7C0AC29B-8B4C-45CC-9ADE-4DA00760F012}" name="Fréquence" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{B009483E-3952-4284-ADD4-9EEEE58CE9E2}" name="Maladies observées dans la parcelle" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{098356DC-31F6-4730-A78B-BF68AFC56B91}" name="Superficie Pulvérisée" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{0576C6F7-BB36-4831-98B0-7DA759E72E3D}" name="Délais De Réentrée Du Produit En Jours" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{23AFDFD7-F7AA-44B7-902D-CB11CAB6ADAC}" name="Durée D'application" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{0938467E-EE06-4F3C-88E3-DB38F58AC79D}" name="Date D'application" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9724D51A-EEA9-49C9-B902-F8E969810658}" name="Table2" displayName="Table2" ref="A1:A4" totalsRowShown="0">
+  <autoFilter ref="A1:A4" xr:uid="{9724D51A-EEA9-49C9-B902-F8E969810658}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{98FA176B-CE0A-4629-80F3-17A26288AA91}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3617830C-E36E-465C-A8D7-6BA0A9370E3B}" name="Table3" displayName="Table3" ref="C2:C4" totalsRowShown="0">
+  <autoFilter ref="C2:C4" xr:uid="{3617830C-E36E-465C-A8D7-6BA0A9370E3B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{12A40F95-D71C-4F91-83B3-BAD0B5A2698F}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{40BBC64C-57C8-4F59-85C4-2349B1F7AC05}" name="Table4" displayName="Table4" ref="E2:E8" totalsRowShown="0">
+  <autoFilter ref="E2:E8" xr:uid="{40BBC64C-57C8-4F59-85C4-2349B1F7AC05}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4ADFF5F9-CC01-4998-8BE3-626904A98FA9}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{121E1EFE-EB49-4C0B-A20B-2730DFD9B17E}" name="Table5" displayName="Table5" ref="G2:G8" totalsRowShown="0">
+  <autoFilter ref="G2:G8" xr:uid="{121E1EFE-EB49-4C0B-A20B-2730DFD9B17E}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DBB6CDAE-20B7-4E53-9BC2-BECE512F68E9}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{322A8444-7DC7-4FC6-BD4D-A7600B4709BB}" name="Table6" displayName="Table6" ref="I3:I7" totalsRowShown="0">
+  <autoFilter ref="I3:I7" xr:uid="{322A8444-7DC7-4FC6-BD4D-A7600B4709BB}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0B3313E1-7171-49C4-88FB-D01BA920DEA7}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{221AEAE5-D44E-4791-8B06-EA04909A913C}" name="Table7" displayName="Table7" ref="K2:K6" totalsRowShown="0">
+  <autoFilter ref="K2:K6" xr:uid="{221AEAE5-D44E-4791-8B06-EA04909A913C}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4E951213-3703-431D-B836-3192537707D0}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E2932B12-E9C1-4331-9875-10673556D5C9}" name="Table8" displayName="Table8" ref="M2:M6" totalsRowShown="0">
+  <autoFilter ref="M2:M6" xr:uid="{E2932B12-E9C1-4331-9875-10673556D5C9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{4D6D16EF-D556-49AB-BB8F-4485C99DFBCD}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -989,20 +1280,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="2" max="6" width="28.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="1" customWidth="1"/>
+    <col min="8" max="23" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,76 +1305,211 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W2" s="6">
+        <v>45310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="W3" s="6">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="U4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
+      <c r="V4" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="W4" s="6">
+        <v>45312</v>
       </c>
     </row>
   </sheetData>
@@ -1092,5 +1519,210 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5008F1A7-1B8D-4B32-B91A-1E9791B6CAC2}">
+          <x14:formula1>
+            <xm:f>Sheet1!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0463FD2D-C90E-484E-A337-2EEE7E1734B1}">
+          <x14:formula1>
+            <xm:f>Sheet1!$C$3:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:I4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2387935B-63B4-4F36-A529-D6F17CE8E8B4}">
+          <x14:formula1>
+            <xm:f>Sheet1!$E$3:$E$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD899362-005C-4A5B-94A1-D6B08D8E9BC9}">
+          <x14:formula1>
+            <xm:f>Sheet1!$G$3:$G$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01D30DC5-923A-4F87-8EE7-1CDF71685471}">
+          <x14:formula1>
+            <xm:f>Sheet1!$I$4:$I$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE660ED4-4232-4763-9764-24D1D79E15DF}">
+          <x14:formula1>
+            <xm:f>Sheet1!$K$3:$K$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q2:Q4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4CD79AF-4AD0-41CD-91DB-E46DBFCFDC1D}">
+          <x14:formula1>
+            <xm:f>Sheet1!$M$3:$M$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FD7CA1-194D-4BD8-A2A4-40577F864ECD}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/assets/phyto-import-exemple.xlsx
+++ b/assets/phyto-import-exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE5559-CCB7-4719-BE38-B5D7CE6B5E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E7A9F-511C-4001-810D-698299CA9C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>matiere 1, matiere 2,matiere 5</t>
+  </si>
+  <si>
+    <t>lkjsdflfdsk sdcdsd</t>
+  </si>
+  <si>
+    <t>sddsdsd sddsqdsq</t>
+  </si>
+  <si>
+    <t>sddsfd sdsqs</t>
+  </si>
+  <si>
+    <t>Est-il En Bon état ?</t>
   </si>
 </sst>
 </file>
@@ -788,8 +800,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -851,6 +869,9 @@
       <font>
         <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -882,9 +903,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W4" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:W4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X4" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="A1:X4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="codeproducteur" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="codeparcelle" dataDxfId="21"/>
@@ -894,6 +915,7 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A-t-il Une Attestation ?" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{BCCE30B8-A8E1-4B8B-AF8F-B1A479CD0FA6}" name="A-t-il Fait Un Bilan De Santé ?" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{F0E31054-6081-428F-A229-AE0D706DDC2B}" name="Possede T-il Un EPI ?" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{C2D1DEE4-1B2A-4B2D-B4B3-2AAA9ACAEFF1}" name="Est-il En Bon état ?" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{F6B42A40-D6BE-4358-ACCB-9B9D87979082}" name="Pesticides" dataDxfId="14"/>
     <tableColumn id="11" xr3:uid="{4BB61336-AEDC-460F-9239-7BDDAC997AA1}" name="Nom Commercial" dataDxfId="13"/>
     <tableColumn id="12" xr3:uid="{14D3D85C-A90D-47F2-9162-437189C7032A}" name="Matières actives" dataDxfId="12"/>
@@ -1280,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,10 +1313,11 @@
     <col min="1" max="1" width="4.21875" customWidth="1"/>
     <col min="2" max="6" width="28.44140625" customWidth="1"/>
     <col min="7" max="7" width="28.44140625" style="1" customWidth="1"/>
-    <col min="8" max="23" width="28.44140625" customWidth="1"/>
+    <col min="8" max="13" width="28.44140625" customWidth="1"/>
+    <col min="15" max="25" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1323,49 +1346,52 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>32</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1379,42 +1405,65 @@
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="L2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="2">
         <v>6</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2">
+      <c r="P2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="2">
         <v>7</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2">
+      <c r="R2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>2</v>
+      <c r="T2" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="U2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="2">
+        <v>2</v>
+      </c>
+      <c r="W2" s="5">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>45310</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1428,42 +1477,65 @@
       <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="L3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2">
+      <c r="N3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="2">
         <v>4</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2">
+      <c r="P3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="2">
         <v>3</v>
       </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2">
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
+      <c r="T3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="2">
         <v>1.5</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="V3" s="5">
+      <c r="W3" s="5">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>45311</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1477,38 +1549,61 @@
       <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="L4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2">
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2">
         <v>3</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2">
+      <c r="P4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="2">
         <v>5</v>
       </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
+      <c r="R4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="2">
         <v>3</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="T4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="2">
         <v>3.45</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>3</v>
       </c>
-      <c r="V4" s="5">
+      <c r="W4" s="5">
         <v>0.125</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>45312</v>
       </c>
     </row>
@@ -1532,37 +1627,37 @@
           <x14:formula1>
             <xm:f>Sheet1!$C$3:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:I4</xm:sqref>
+          <xm:sqref>F2:J4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2387935B-63B4-4F36-A529-D6F17CE8E8B4}">
           <x14:formula1>
             <xm:f>Sheet1!$E$3:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J4</xm:sqref>
+          <xm:sqref>K2:K4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD899362-005C-4A5B-94A1-D6B08D8E9BC9}">
           <x14:formula1>
             <xm:f>Sheet1!$G$3:$G$8</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M4</xm:sqref>
+          <xm:sqref>N2:N4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01D30DC5-923A-4F87-8EE7-1CDF71685471}">
           <x14:formula1>
             <xm:f>Sheet1!$I$4:$I$7</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O4</xm:sqref>
+          <xm:sqref>P2:P4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE660ED4-4232-4763-9764-24D1D79E15DF}">
           <x14:formula1>
             <xm:f>Sheet1!$K$3:$K$6</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q4</xm:sqref>
+          <xm:sqref>R2:R4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4CD79AF-4AD0-41CD-91DB-E46DBFCFDC1D}">
           <x14:formula1>
             <xm:f>Sheet1!$M$3:$M$6</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S4</xm:sqref>
+          <xm:sqref>T2:T4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/assets/phyto-import-exemple.xlsx
+++ b/assets/phyto-import-exemple.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliusko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08E7A9F-511C-4001-810D-698299CA9C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2534E-74CF-4D07-8A32-6D53230A08D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="import-liste-exemple" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -48,12 +47,6 @@
     <t>codeparcelle</t>
   </si>
   <si>
-    <t>RA-DI-001-P1</t>
-  </si>
-  <si>
-    <t>RA-DI-003-P1</t>
-  </si>
-  <si>
     <t>Producteur</t>
   </si>
   <si>
@@ -63,15 +56,6 @@
     <t>Independant</t>
   </si>
   <si>
-    <t>RA-DI-001-S1</t>
-  </si>
-  <si>
-    <t>RA-DI-004-S1</t>
-  </si>
-  <si>
-    <t>RA-DI-004-P1</t>
-  </si>
-  <si>
     <t>Qui A Réalisé L'application ?</t>
   </si>
   <si>
@@ -90,15 +74,9 @@
     <t>Applicateur coop</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>KIMA ISSOUF</t>
   </si>
   <si>
-    <t>KONAN DIDIER</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
@@ -147,45 +125,27 @@
     <t>Date D'application</t>
   </si>
   <si>
-    <t>Herbicides</t>
-  </si>
-  <si>
     <t>Fongicides</t>
   </si>
   <si>
     <t>Nematicide</t>
   </si>
   <si>
-    <t>Insecticides</t>
-  </si>
-  <si>
     <t>Acaricides</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>IA</t>
-  </si>
-  <si>
     <t>IB</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>L/HA</t>
   </si>
   <si>
-    <t>mL/HA</t>
-  </si>
-  <si>
     <t>Kg/HA</t>
   </si>
   <si>
@@ -195,18 +155,12 @@
     <t>Kg</t>
   </si>
   <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>mL</t>
   </si>
   <si>
-    <t>Mirides</t>
-  </si>
-  <si>
     <t>Punaises</t>
   </si>
   <si>
@@ -235,6 +189,42 @@
   </si>
   <si>
     <t>Est-il En Bon état ?</t>
+  </si>
+  <si>
+    <t>DJA-024</t>
+  </si>
+  <si>
+    <t>DAH-061</t>
+  </si>
+  <si>
+    <t>KAZ-026</t>
+  </si>
+  <si>
+    <t>DAH-061-P1</t>
+  </si>
+  <si>
+    <t>KAZ-026-P1</t>
+  </si>
+  <si>
+    <t>DJA-024-P1</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>19/01/2024</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>20/02/2024</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>21/02/2024</t>
   </si>
 </sst>
 </file>
@@ -737,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -749,10 +739,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -802,54 +789,56 @@
   </cellStyles>
   <dxfs count="25">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF000000"/>
         <name val="Consolas"/>
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -915,91 +904,21 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A-t-il Une Attestation ?" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{BCCE30B8-A8E1-4B8B-AF8F-B1A479CD0FA6}" name="A-t-il Fait Un Bilan De Santé ?" dataDxfId="16"/>
     <tableColumn id="9" xr3:uid="{F0E31054-6081-428F-A229-AE0D706DDC2B}" name="Possede T-il Un EPI ?" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{C2D1DEE4-1B2A-4B2D-B4B3-2AAA9ACAEFF1}" name="Est-il En Bon état ?" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{F6B42A40-D6BE-4358-ACCB-9B9D87979082}" name="Pesticides" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{4BB61336-AEDC-460F-9239-7BDDAC997AA1}" name="Nom Commercial" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{14D3D85C-A90D-47F2-9162-437189C7032A}" name="Matières actives" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{7ECD3FB2-C95D-4108-AE0A-6B4CEDC2B1E4}" name="Toxicicologie" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{553B064E-AAA8-485D-85D5-23A2AB002D5C}" name="Dose" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{FE44B55E-8360-4DF6-BD52-3FCA2A68EE30}" name="Unite Dose" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{EC96B864-BC3C-4402-9C3E-B934370C3637}" name="Quantité" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{F341C678-A800-4178-B1C5-155805A3C4DE}" name="Unite Quantite" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{7C0AC29B-8B4C-45CC-9ADE-4DA00760F012}" name="Fréquence" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{B009483E-3952-4284-ADD4-9EEEE58CE9E2}" name="Maladies observées dans la parcelle" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{098356DC-31F6-4730-A78B-BF68AFC56B91}" name="Superficie Pulvérisée" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{0576C6F7-BB36-4831-98B0-7DA759E72E3D}" name="Délais De Réentrée Du Produit En Jours" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{23AFDFD7-F7AA-44B7-902D-CB11CAB6ADAC}" name="Durée D'application" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{0938467E-EE06-4F3C-88E3-DB38F58AC79D}" name="Date D'application" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9724D51A-EEA9-49C9-B902-F8E969810658}" name="Table2" displayName="Table2" ref="A1:A4" totalsRowShown="0">
-  <autoFilter ref="A1:A4" xr:uid="{9724D51A-EEA9-49C9-B902-F8E969810658}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{98FA176B-CE0A-4629-80F3-17A26288AA91}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3617830C-E36E-465C-A8D7-6BA0A9370E3B}" name="Table3" displayName="Table3" ref="C2:C4" totalsRowShown="0">
-  <autoFilter ref="C2:C4" xr:uid="{3617830C-E36E-465C-A8D7-6BA0A9370E3B}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{12A40F95-D71C-4F91-83B3-BAD0B5A2698F}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{40BBC64C-57C8-4F59-85C4-2349B1F7AC05}" name="Table4" displayName="Table4" ref="E2:E8" totalsRowShown="0">
-  <autoFilter ref="E2:E8" xr:uid="{40BBC64C-57C8-4F59-85C4-2349B1F7AC05}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4ADFF5F9-CC01-4998-8BE3-626904A98FA9}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{121E1EFE-EB49-4C0B-A20B-2730DFD9B17E}" name="Table5" displayName="Table5" ref="G2:G8" totalsRowShown="0">
-  <autoFilter ref="G2:G8" xr:uid="{121E1EFE-EB49-4C0B-A20B-2730DFD9B17E}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DBB6CDAE-20B7-4E53-9BC2-BECE512F68E9}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{322A8444-7DC7-4FC6-BD4D-A7600B4709BB}" name="Table6" displayName="Table6" ref="I3:I7" totalsRowShown="0">
-  <autoFilter ref="I3:I7" xr:uid="{322A8444-7DC7-4FC6-BD4D-A7600B4709BB}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0B3313E1-7171-49C4-88FB-D01BA920DEA7}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{221AEAE5-D44E-4791-8B06-EA04909A913C}" name="Table7" displayName="Table7" ref="K2:K6" totalsRowShown="0">
-  <autoFilter ref="K2:K6" xr:uid="{221AEAE5-D44E-4791-8B06-EA04909A913C}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4E951213-3703-431D-B836-3192537707D0}" name="Column1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{E2932B12-E9C1-4331-9875-10673556D5C9}" name="Table8" displayName="Table8" ref="M2:M6" totalsRowShown="0">
-  <autoFilter ref="M2:M6" xr:uid="{E2932B12-E9C1-4331-9875-10673556D5C9}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4D6D16EF-D556-49AB-BB8F-4485C99DFBCD}" name="Column1"/>
+    <tableColumn id="24" xr3:uid="{C2D1DEE4-1B2A-4B2D-B4B3-2AAA9ACAEFF1}" name="Est-il En Bon état ?" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{F6B42A40-D6BE-4358-ACCB-9B9D87979082}" name="Pesticides" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{4BB61336-AEDC-460F-9239-7BDDAC997AA1}" name="Nom Commercial" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{14D3D85C-A90D-47F2-9162-437189C7032A}" name="Matières actives" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{7ECD3FB2-C95D-4108-AE0A-6B4CEDC2B1E4}" name="Toxicicologie" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{553B064E-AAA8-485D-85D5-23A2AB002D5C}" name="Dose" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{FE44B55E-8360-4DF6-BD52-3FCA2A68EE30}" name="Unite Dose" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{EC96B864-BC3C-4402-9C3E-B934370C3637}" name="Quantité" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{F341C678-A800-4178-B1C5-155805A3C4DE}" name="Unite Quantite" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{7C0AC29B-8B4C-45CC-9ADE-4DA00760F012}" name="Fréquence" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{B009483E-3952-4284-ADD4-9EEEE58CE9E2}" name="Maladies observées dans la parcelle" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{098356DC-31F6-4730-A78B-BF68AFC56B91}" name="Superficie Pulvérisée" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{0576C6F7-BB36-4831-98B0-7DA759E72E3D}" name="Délais De Réentrée Du Produit En Jours" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{23AFDFD7-F7AA-44B7-902D-CB11CAB6ADAC}" name="Durée D'application" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{0938467E-EE06-4F3C-88E3-DB38F58AC79D}" name="Date D'application" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1304,20 +1223,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="6" width="28.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.44140625" style="1" customWidth="1"/>
-    <col min="8" max="13" width="28.44140625" customWidth="1"/>
-    <col min="15" max="25" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
+    <col min="2" max="6" width="28.453125" customWidth="1"/>
+    <col min="7" max="7" width="28.453125" style="1" customWidth="1"/>
+    <col min="8" max="13" width="28.453125" customWidth="1"/>
+    <col min="15" max="22" width="28.453125" customWidth="1"/>
+    <col min="23" max="24" width="28.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1328,127 +1249,115 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="S1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="T1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="V1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2">
         <v>7</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2">
         <v>2</v>
@@ -1456,71 +1365,61 @@
       <c r="V2" s="2">
         <v>2</v>
       </c>
-      <c r="W2" s="5">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="X2" s="6">
-        <v>45310</v>
+      <c r="W2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2">
         <v>4</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="2">
         <v>3</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="S3" s="2">
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="U3" s="2">
         <v>1.5</v>
@@ -1528,71 +1427,69 @@
       <c r="V3" s="2">
         <v>1</v>
       </c>
-      <c r="W3" s="5">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="X3" s="6">
-        <v>45311</v>
+      <c r="W3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2">
         <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2">
         <v>5</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="S4" s="2">
         <v>3</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="U4" s="2">
         <v>3.45</v>
@@ -1600,11 +1497,11 @@
       <c r="V4" s="2">
         <v>3</v>
       </c>
-      <c r="W4" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="X4" s="6">
-        <v>45312</v>
+      <c r="W4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1614,210 +1511,5 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5008F1A7-1B8D-4B32-B91A-1E9791B6CAC2}">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0463FD2D-C90E-484E-A337-2EEE7E1734B1}">
-          <x14:formula1>
-            <xm:f>Sheet1!$C$3:$C$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:J4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2387935B-63B4-4F36-A529-D6F17CE8E8B4}">
-          <x14:formula1>
-            <xm:f>Sheet1!$E$3:$E$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD899362-005C-4A5B-94A1-D6B08D8E9BC9}">
-          <x14:formula1>
-            <xm:f>Sheet1!$G$3:$G$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{01D30DC5-923A-4F87-8EE7-1CDF71685471}">
-          <x14:formula1>
-            <xm:f>Sheet1!$I$4:$I$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>P2:P4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE660ED4-4232-4763-9764-24D1D79E15DF}">
-          <x14:formula1>
-            <xm:f>Sheet1!$K$3:$K$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>R2:R4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4CD79AF-4AD0-41CD-91DB-E46DBFCFDC1D}">
-          <x14:formula1>
-            <xm:f>Sheet1!$M$3:$M$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>T2:T4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FD7CA1-194D-4BD8-A2A4-40577F864ECD}">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="7">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
-    <tablePart r:id="rId7"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/assets/phyto-import-exemple.xlsx
+++ b/assets/phyto-import-exemple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliusko\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2534E-74CF-4D07-8A32-6D53230A08D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B9EBAD-EE74-49FC-9035-8CCFE3F04B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,15 +161,6 @@
     <t>mL</t>
   </si>
   <si>
-    <t>Punaises</t>
-  </si>
-  <si>
-    <t>Foreurs</t>
-  </si>
-  <si>
-    <t>Chenilles</t>
-  </si>
-  <si>
     <t>matiere 1, matiere 2,matiere 3</t>
   </si>
   <si>
@@ -225,6 +216,15 @@
   </si>
   <si>
     <t>21/02/2024</t>
+  </si>
+  <si>
+    <t>Mirides,Punaises,Foreurs,Chenilles</t>
+  </si>
+  <si>
+    <t>Mirides,Punaises,Foreurs</t>
+  </si>
+  <si>
+    <t>Mirides,Chenilles</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,7 +1267,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -1315,10 +1315,10 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1333,10 +1333,10 @@
         <v>29</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>32</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="U2" s="2">
         <v>2</v>
@@ -1366,19 +1366,19 @@
         <v>2</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1395,10 +1395,10 @@
         <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>33</v>
@@ -1419,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="U3" s="2">
         <v>1.5</v>
@@ -1428,19 +1428,19 @@
         <v>1</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -1465,10 +1465,10 @@
         <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>34</v>
@@ -1489,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="U4" s="2">
         <v>3.45</v>
@@ -1498,10 +1498,10 @@
         <v>3</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
